--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_36.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_36.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_0</t>
+          <t>model_1_36_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998629201205682</v>
+        <v>0.9373420997328931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8289665896192961</v>
+        <v>0.7354768811446597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8200240994009196</v>
+        <v>0.6399041874639447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999638931339253</v>
+        <v>0.9472919468714602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005705986577336465</v>
+        <v>0.2608151826293141</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143701202752207</v>
+        <v>1.768867313802626</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6437633608406017</v>
+        <v>1.288041841886595</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001136432790093922</v>
+        <v>0.2315926762256736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08306515346891254</v>
+        <v>1.225429462732916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02388720698896475</v>
+        <v>0.5107006781171474</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008773112283635</v>
+        <v>0.9146786038915991</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02426340662059435</v>
+        <v>0.5187437032841087</v>
       </c>
       <c r="N2" t="n">
-        <v>144.9376489431294</v>
+        <v>36.6878864700418</v>
       </c>
       <c r="O2" t="n">
-        <v>286.2728214863458</v>
+        <v>73.65247005826762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_1</t>
+          <t>model_1_36_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998649338919797</v>
+        <v>0.9373598129160366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8289529317804907</v>
+        <v>0.7353901651674943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8203519191106941</v>
+        <v>0.6396318683289202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999504073092378</v>
+        <v>0.9476917260947184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005622162804715397</v>
+        <v>0.2607414510315932</v>
       </c>
       <c r="G3" t="n">
-        <v>1.143792532783188</v>
+        <v>1.76944718394122</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6425907687468172</v>
+        <v>1.289015911642607</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001560887611085145</v>
+        <v>0.2298360956897166</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08299247395597076</v>
+        <v>1.224257498567652</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02371110036399702</v>
+        <v>0.510628486310344</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008644230913298</v>
+        <v>0.9147027239707733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02408452649232542</v>
+        <v>0.5186703745285136</v>
       </c>
       <c r="N3" t="n">
-        <v>144.9672478828122</v>
+        <v>36.68845194342248</v>
       </c>
       <c r="O3" t="n">
-        <v>286.3024204260286</v>
+        <v>73.6530355316483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_2</t>
+          <t>model_1_36_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998603962532217</v>
+        <v>0.9373681021319904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8289211247842608</v>
+        <v>0.7353431614861878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8208518466227541</v>
+        <v>0.6394956923490906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997647332240086</v>
+        <v>0.9478938946363521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005811043229428708</v>
+        <v>0.2607069469488897</v>
       </c>
       <c r="G4" t="n">
-        <v>1.144005226313435</v>
+        <v>1.769761497774549</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6408025570236409</v>
+        <v>1.28950300522652</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007404820958507821</v>
+        <v>0.2289477920847362</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08607962188899877</v>
+        <v>1.223687556089753</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02410610551173438</v>
+        <v>0.510594699295723</v>
       </c>
       <c r="L4" t="n">
-        <v>1.008934639793814</v>
+        <v>0.9147140114137742</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02448575257627936</v>
+        <v>0.5186360554021868</v>
       </c>
       <c r="N4" t="n">
-        <v>144.90116051934</v>
+        <v>36.68871662221246</v>
       </c>
       <c r="O4" t="n">
-        <v>286.2363330625564</v>
+        <v>73.65330021043829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_3</t>
+          <t>model_1_36_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998569820699774</v>
+        <v>0.9373760110528926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8288296145934543</v>
+        <v>0.7352998041919763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8208320508307039</v>
+        <v>0.639359245612199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997371024829134</v>
+        <v>0.9480975627594234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005953159518447583</v>
+        <v>0.2606740258544912</v>
       </c>
       <c r="G5" t="n">
-        <v>1.144617155380724</v>
+        <v>1.770051428200584</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6408733654239788</v>
+        <v>1.289991067292745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008274474949808782</v>
+        <v>0.2280528995041109</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08738709237621847</v>
+        <v>1.223107623128542</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02439909735717201</v>
+        <v>0.5105624602871731</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009153147521445</v>
+        <v>0.9147247810081942</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02478335875039824</v>
+        <v>0.5186033086614795</v>
       </c>
       <c r="N5" t="n">
-        <v>144.8528365637031</v>
+        <v>36.68896919065021</v>
       </c>
       <c r="O5" t="n">
-        <v>286.1880091069195</v>
+        <v>73.65355277887602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_4</t>
+          <t>model_1_36_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998494820624765</v>
+        <v>0.9373834287120744</v>
       </c>
       <c r="C6" t="n">
-        <v>0.828722781814949</v>
+        <v>0.7352563817707918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8209154769304475</v>
+        <v>0.6392228493189174</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996650238468479</v>
+        <v>0.9483027284737879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006265349332937516</v>
+        <v>0.2606431496501192</v>
       </c>
       <c r="G6" t="n">
-        <v>1.145331546662508</v>
+        <v>1.770341794130987</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6405749551025192</v>
+        <v>1.290478948925102</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00105430884960663</v>
+        <v>0.2271514266922892</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08846048690355185</v>
+        <v>1.222525402689933</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02503067984082237</v>
+        <v>0.5105322219508962</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009633148001505</v>
+        <v>0.9147348816504842</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02542488802681524</v>
+        <v>0.5185725941016335</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7506120514707</v>
+        <v>36.6892060998169</v>
       </c>
       <c r="O6" t="n">
-        <v>286.085784594687</v>
+        <v>73.65378968804272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_5</t>
+          <t>model_1_36_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998489437148207</v>
+        <v>0.9374031806937718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8287132374507045</v>
+        <v>0.7351256323263812</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8208440474769664</v>
+        <v>0.6388127500395467</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996373951906165</v>
+        <v>0.94892757743881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006287758197830873</v>
+        <v>0.2605609314989882</v>
       </c>
       <c r="G7" t="n">
-        <v>1.145395369870159</v>
+        <v>1.771216116267806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6408304541159033</v>
+        <v>1.291945850268488</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00114126768680564</v>
+        <v>0.2244059175061807</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08760991101734029</v>
+        <v>1.220737709801078</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02507540268436555</v>
+        <v>0.5104516935998824</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009667602251476</v>
+        <v>0.9147617779659871</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02547031521043778</v>
+        <v>0.51849079750959</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7434715442642</v>
+        <v>36.68983708606422</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0786440874806</v>
+        <v>73.65442067429004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_6</t>
+          <t>model_1_36_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998315147536265</v>
+        <v>0.937433835133502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8286521030553524</v>
+        <v>0.7345700568110352</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8208718802121793</v>
+        <v>0.6373099847665522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994836264176943</v>
+        <v>0.9513377790235797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007013243360521358</v>
+        <v>0.2604333315752348</v>
       </c>
       <c r="G8" t="n">
-        <v>1.145804175853377</v>
+        <v>1.774931252297115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6407308980358816</v>
+        <v>1.297321154514653</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00162524177439181</v>
+        <v>0.2138157893923811</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08988231477725535</v>
+        <v>1.213595423538175</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02648252888324934</v>
+        <v>0.5103266910276542</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010783055767902</v>
+        <v>0.9148035201817899</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02689960224034384</v>
+        <v>0.518363826271806</v>
       </c>
       <c r="N8" t="n">
-        <v>144.5250802033601</v>
+        <v>36.69081675079643</v>
       </c>
       <c r="O8" t="n">
-        <v>285.8602527465765</v>
+        <v>73.65540033902225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_8</t>
+          <t>model_1_36_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999817973295568</v>
+        <v>0.9374326413257064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8286209845141377</v>
+        <v>0.7345160200529595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8207540122426819</v>
+        <v>0.637173933132458</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999363579701979</v>
+        <v>0.951566117480829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007576910167348605</v>
+        <v>0.2604383008320552</v>
       </c>
       <c r="G9" t="n">
-        <v>1.146012265681767</v>
+        <v>1.775292596347184</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6411525049283964</v>
+        <v>1.29780780332108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002003078565321091</v>
+        <v>0.2128124984100595</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09078570701612997</v>
+        <v>1.212903347562035</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02752618783513003</v>
+        <v>0.5103315597060946</v>
       </c>
       <c r="L9" t="n">
-        <v>1.011649709083649</v>
+        <v>0.9148018945711747</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02795969777744045</v>
+        <v>0.518368771627065</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3704697701257</v>
+        <v>36.69077858971019</v>
       </c>
       <c r="O9" t="n">
-        <v>285.7056423133421</v>
+        <v>73.65536217793601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_9</t>
+          <t>model_1_36_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998169539461825</v>
+        <v>0.937430761565954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8286187633532196</v>
+        <v>0.7344628144377308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8207567364351915</v>
+        <v>0.6370380589277671</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993461616655925</v>
+        <v>0.9517960770136418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007619340857652499</v>
+        <v>0.2604461253822082</v>
       </c>
       <c r="G10" t="n">
-        <v>1.146027118595054</v>
+        <v>1.775648382541207</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6411427606497472</v>
+        <v>1.298293817472821</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002057900348102434</v>
+        <v>0.2118020846219074</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09055004488370304</v>
+        <v>1.212196207842684</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0276031535474708</v>
+        <v>0.5103392257922256</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011714947444318</v>
+        <v>0.9147993348983203</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0280378756228131</v>
+        <v>0.5183765584463892</v>
       </c>
       <c r="N10" t="n">
-        <v>144.359301015279</v>
+        <v>36.69071850305941</v>
       </c>
       <c r="O10" t="n">
-        <v>285.6944735584954</v>
+        <v>73.65530209128524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_7</t>
+          <t>model_1_36_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999825800171446</v>
+        <v>0.9374280398382397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8285773675559631</v>
+        <v>0.734405098846396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8208352881692189</v>
+        <v>0.6369023386718182</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994204813653934</v>
+        <v>0.9520275256969586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007251114369399641</v>
+        <v>0.26045745464648</v>
       </c>
       <c r="G11" t="n">
-        <v>1.146303932481918</v>
+        <v>1.776034326966219</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6408617856518224</v>
+        <v>1.298779280958837</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001823985436659302</v>
+        <v>0.2107851276903448</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08980411712978086</v>
+        <v>1.211481687781984</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02692789328818658</v>
+        <v>0.5103503254103793</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011148789027459</v>
+        <v>0.9147956287159009</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02735198068945777</v>
+        <v>0.5183878328724333</v>
       </c>
       <c r="N11" t="n">
-        <v>144.4583704175942</v>
+        <v>36.6906315060434</v>
       </c>
       <c r="O11" t="n">
-        <v>285.7935429608106</v>
+        <v>73.65521509426922</v>
       </c>
     </row>
   </sheetData>
